--- a/AutoTests Merged/data/activity.xlsx
+++ b/AutoTests Merged/data/activity.xlsx
@@ -145,12 +145,6 @@
     <t>review_website</t>
   </si>
   <si>
-    <t>Auto regression 10.05.2018</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>First branch</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>1h 30 m</t>
+  </si>
+  <si>
+    <t>Auto regression 19.05.2018</t>
+  </si>
+  <si>
+    <t>Private Party</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,82 +738,79 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="2">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
